--- a/ResultadoEleicoesDistritos/VILA REAL_RIBEIRA DE PENA.xlsx
+++ b/ResultadoEleicoesDistritos/VILA REAL_RIBEIRA DE PENA.xlsx
@@ -597,64 +597,64 @@
         <v>2440</v>
       </c>
       <c r="H2" t="n">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I2" t="n">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="J2" t="n">
-        <v>1010</v>
+        <v>999</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N2" t="n">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S2" t="n">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="T2" t="n">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="U2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V2" t="n">
-        <v>1529</v>
+        <v>1591</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1617</v>
+        <v>1543</v>
       </c>
       <c r="Y2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
